--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il33-Il1rl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -534,51 +534,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4785103333333333</v>
+        <v>0.1004223333333333</v>
       </c>
       <c r="H2">
-        <v>1.435531</v>
+        <v>0.301267</v>
       </c>
       <c r="I2">
-        <v>0.01183374253319748</v>
+        <v>0.002425263903734378</v>
       </c>
       <c r="J2">
-        <v>0.01183374253319748</v>
+        <v>0.002425263903734379</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.557338</v>
+        <v>3.249118</v>
       </c>
       <c r="N2">
-        <v>4.672014</v>
+        <v>9.747354</v>
       </c>
       <c r="O2">
-        <v>0.3240096237227595</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.3240096237227596</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.7452023254926666</v>
+        <v>0.3262840108353333</v>
       </c>
       <c r="R2">
-        <v>6.706820929434</v>
+        <v>2.936556097518</v>
       </c>
       <c r="S2">
-        <v>0.003834246465413332</v>
+        <v>0.002425263903734378</v>
       </c>
       <c r="T2">
-        <v>0.003834246465413333</v>
+        <v>0.002425263903734379</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4785103333333333</v>
+        <v>37.79047733333334</v>
       </c>
       <c r="H3">
-        <v>1.435531</v>
+        <v>113.371432</v>
       </c>
       <c r="I3">
-        <v>0.01183374253319748</v>
+        <v>0.9126643201687427</v>
       </c>
       <c r="J3">
-        <v>0.01183374253319748</v>
+        <v>0.9126643201687429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,27 +620,27 @@
         <v>9.747354</v>
       </c>
       <c r="O3">
-        <v>0.6759903762772405</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.6759903762772405</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.554736537219333</v>
+        <v>122.7857201323253</v>
       </c>
       <c r="R3">
-        <v>13.992628834974</v>
+        <v>1105.071481190928</v>
       </c>
       <c r="S3">
-        <v>0.007999496067784152</v>
+        <v>0.9126643201687427</v>
       </c>
       <c r="T3">
-        <v>0.007999496067784152</v>
+        <v>0.9126643201687429</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,232 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.79047733333334</v>
+        <v>3.515865666666667</v>
       </c>
       <c r="H4">
-        <v>113.371432</v>
+        <v>10.547597</v>
       </c>
       <c r="I4">
-        <v>0.9345728771499232</v>
+        <v>0.08491041592752281</v>
       </c>
       <c r="J4">
-        <v>0.9345728771499232</v>
+        <v>0.08491041592752283</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.557338</v>
+        <v>3.249118</v>
       </c>
       <c r="N4">
-        <v>4.672014</v>
+        <v>9.747354</v>
       </c>
       <c r="O4">
-        <v>0.3240096237227595</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.3240096237227596</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>58.85254638933866</v>
+        <v>11.42346242314867</v>
       </c>
       <c r="R4">
-        <v>529.672917504048</v>
+        <v>102.811161808338</v>
       </c>
       <c r="S4">
-        <v>0.3028106062668434</v>
+        <v>0.08491041592752281</v>
       </c>
       <c r="T4">
-        <v>0.3028106062668435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>37.79047733333334</v>
-      </c>
-      <c r="H5">
-        <v>113.371432</v>
-      </c>
-      <c r="I5">
-        <v>0.9345728771499232</v>
-      </c>
-      <c r="J5">
-        <v>0.9345728771499232</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.249118</v>
-      </c>
-      <c r="N5">
-        <v>9.747354</v>
-      </c>
-      <c r="O5">
-        <v>0.6759903762772405</v>
-      </c>
-      <c r="P5">
-        <v>0.6759903762772405</v>
-      </c>
-      <c r="Q5">
-        <v>122.7857201323253</v>
-      </c>
-      <c r="R5">
-        <v>1105.071481190928</v>
-      </c>
-      <c r="S5">
-        <v>0.6317622708830798</v>
-      </c>
-      <c r="T5">
-        <v>0.6317622708830798</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.167107</v>
-      </c>
-      <c r="H6">
-        <v>6.501321000000001</v>
-      </c>
-      <c r="I6">
-        <v>0.05359338031687927</v>
-      </c>
-      <c r="J6">
-        <v>0.05359338031687928</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>1.557338</v>
-      </c>
-      <c r="N6">
-        <v>4.672014</v>
-      </c>
-      <c r="O6">
-        <v>0.3240096237227595</v>
-      </c>
-      <c r="P6">
-        <v>0.3240096237227596</v>
-      </c>
-      <c r="Q6">
-        <v>3.374918081166</v>
-      </c>
-      <c r="R6">
-        <v>30.374262730494</v>
-      </c>
-      <c r="S6">
-        <v>0.0173647709905028</v>
-      </c>
-      <c r="T6">
-        <v>0.01736477099050281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.167107</v>
-      </c>
-      <c r="H7">
-        <v>6.501321000000001</v>
-      </c>
-      <c r="I7">
-        <v>0.05359338031687927</v>
-      </c>
-      <c r="J7">
-        <v>0.05359338031687928</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.249118</v>
-      </c>
-      <c r="N7">
-        <v>9.747354</v>
-      </c>
-      <c r="O7">
-        <v>0.6759903762772405</v>
-      </c>
-      <c r="P7">
-        <v>0.6759903762772405</v>
-      </c>
-      <c r="Q7">
-        <v>7.041186361626</v>
-      </c>
-      <c r="R7">
-        <v>63.370677254634</v>
-      </c>
-      <c r="S7">
-        <v>0.03622860932637647</v>
-      </c>
-      <c r="T7">
-        <v>0.03622860932637648</v>
+        <v>0.08491041592752283</v>
       </c>
     </row>
   </sheetData>
